--- a/REGULAR/OJT/NEW DONE/LUNA, FERNANDO.xlsx
+++ b/REGULAR/OJT/NEW DONE/LUNA, FERNANDO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="152">
   <si>
     <t>PERIOD</t>
   </si>
@@ -492,6 +492,12 @@
   </si>
   <si>
     <t>2/13-17,20-23/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/26,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1378,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1421,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1485,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1545,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1611,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1674,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1772,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1831,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1896,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1939,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2014,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2200,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2266,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2324,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2390,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2446,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2521,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2564,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2630,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2680,7 +2686,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2784,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2847,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,7 +3296,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane ySplit="1725" topLeftCell="A331" activePane="bottomLeft"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B349" sqref="B349"/>
+      <selection pane="bottomLeft" activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,7 +3453,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>218.476</v>
+        <v>219.726</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3457,7 +3463,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>335.75</v>
+        <v>335</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10835,19 +10841,27 @@
       <c r="A350" s="39">
         <v>45017</v>
       </c>
-      <c r="B350" s="20"/>
-      <c r="C350" s="13"/>
+      <c r="B350" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D350" s="38"/>
       <c r="E350" s="9"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H350" s="38"/>
+      <c r="G350" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H350" s="38">
+        <v>2</v>
+      </c>
       <c r="I350" s="9"/>
       <c r="J350" s="11"/>
-      <c r="K350" s="20"/>
+      <c r="K350" s="20" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
